--- a/data/income_statement/2digits/total/82_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/82_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>82-Office administrative, office support and other business support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>82-Office administrative, office support and other business support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,98 +841,113 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4142751.29334</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4764409.65953</v>
+        <v>5067595.58723</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6477460.28445</v>
+        <v>6477460.284450001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7376947.14067</v>
+        <v>7377933.324650001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9072407.641450001</v>
+        <v>9073015.478220001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10407136.93738</v>
+        <v>10556142.00881</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11899856.31618</v>
+        <v>12993434.61466</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15499713.42393</v>
+        <v>15721844.74684</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>19217517.33717</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23005575.09545</v>
+        <v>23157665.09703</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>27696286.70996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>28283371.41249</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27944887.67</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>3763539.67294</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4323251.69892</v>
+        <v>4624972.41895</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5959989.040369999</v>
+        <v>5959989.04037</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6872787.326269999</v>
+        <v>6873773.51025</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8504605.0801</v>
+        <v>8504954.443500001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9680022.974380001</v>
+        <v>9827202.05157</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10993530.33719</v>
+        <v>12081444.54449</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14304687.53011</v>
+        <v>14524857.77063</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>16917483.93504</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20385352.0553</v>
+        <v>20519808.9312</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>24576318.19365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25117436.0631</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>24764509.996</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>291253.7081400001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>317310.20316</v>
+        <v>318444.56664</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>387347.21701</v>
@@ -1040,37 +956,42 @@
         <v>399775.71405</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>445372.36887</v>
+        <v>445630.84224</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>572421.4546599999</v>
+        <v>573129.8063299999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>708378.3880400001</v>
+        <v>712555.2174000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>917990.2927400001</v>
+        <v>918534.2657700001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1917637.92912</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2066499.18395</v>
+        <v>2081199.74844</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2443759.85006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2481841.82014</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2415046.224</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>87957.91226</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>123847.75745</v>
+        <v>124178.60164</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>130124.02707</v>
@@ -1082,34 +1003,39 @@
         <v>122430.19248</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>154692.50834</v>
+        <v>155810.15091</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>197947.59095</v>
+        <v>199434.85277</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>277035.60108</v>
+        <v>278452.7104399999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>382395.47301</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>553723.8562</v>
+        <v>556656.41739</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>676208.66625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>684093.52925</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>765331.45</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>54489.93523</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>73080.15678</v>
+        <v>74139.99175999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>101706.03674</v>
@@ -1118,37 +1044,42 @@
         <v>124458.46987</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>146673.18101</v>
+        <v>146673.33478</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>199092.98057</v>
+        <v>199134.99119</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>218316.02991</v>
+        <v>223643.73134</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>324302.81765</v>
+        <v>366192.83065</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>392417.64337</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>478923.76971</v>
+        <v>479020.1051999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>317861.87588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>319515.45784</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>402512.8</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>28027.53515</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>25369.6146</v>
+        <v>26429.44958</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>36885.50822</v>
@@ -1157,55 +1088,60 @@
         <v>48056.63522</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>53098.63653</v>
+        <v>53098.7903</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>83705.97562000001</v>
+        <v>83739.16849</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>78953.68553</v>
+        <v>84250.20430999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>192611.71139</v>
+        <v>192921.32139</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>165358.98566</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>213878.23778</v>
+        <v>213892.97947</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>243090.26069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>243973.81049</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>316485.022</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>25729.57241</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>46960.48078</v>
+        <v>46960.48077999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>62502.76330999999</v>
+        <v>62502.76331</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>74741.87417</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>90643.87889000002</v>
+        <v>90643.87889000001</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>112537.03463</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>136458.42536</v>
+        <v>136468.12286</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>128525.29167</v>
+        <v>170048.59648</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>223428.04977</v>
@@ -1214,19 +1150,24 @@
         <v>259973.07941</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>69790.00713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>69797.19441999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>71978.065</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>732.8276699999999</v>
+        <v>732.82767</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>750.0614</v>
+        <v>750.0613999999999</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>2317.76521</v>
@@ -1238,106 +1179,121 @@
         <v>2930.66559</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2849.97032</v>
+        <v>2858.788070000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2903.91902</v>
+        <v>2925.40417</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3165.814589999999</v>
+        <v>3222.91278</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>3630.60794</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5072.452520000001</v>
+        <v>5154.04632</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4981.60806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5744.452929999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>14049.713</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4088261.35811</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4691329.50275</v>
+        <v>4993455.59547</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6375754.247709999</v>
+        <v>6375754.247710001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7252488.670799999</v>
+        <v>7253474.85478</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8925734.460439999</v>
+        <v>8926342.143440001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10208043.95681</v>
+        <v>10357007.01762</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11681540.28627</v>
+        <v>12769790.88332</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15175410.60628</v>
+        <v>15355651.91619</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>18825099.6938</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>22526651.32574</v>
+        <v>22678644.99183</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>27378424.83408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27963855.95465</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>27542374.87</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3267809.71716</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3726162.96472</v>
+        <v>3987133.680299999</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>5041103.187600001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5788563.75023</v>
+        <v>5789375.96673</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7125443.51652</v>
+        <v>7125951.042649999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8049817.936059999</v>
+        <v>8136411.197480001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>9371529.49037</v>
+        <v>10234649.78534</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12270916.78019</v>
+        <v>12327605.60036</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>15191303.2941</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17828364.06951</v>
+        <v>17952523.2691</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>21887030.79752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22329792.95671</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21652649.652</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>165703.17555</v>
@@ -1355,28 +1311,33 @@
         <v>313513.65886</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>324437.87096</v>
+        <v>324552.17013</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>336513.1407</v>
+        <v>337369.03481</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>466373.04818</v>
+        <v>472709.76385</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>666791.8211999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>683868.84251</v>
+        <v>687349.62154</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>937010.28723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>941612.5758999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1156932.629</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>415084.20177</v>
@@ -1391,70 +1352,80 @@
         <v>617362.5262000001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>723328.35301</v>
+        <v>723328.3530100002</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>734087.2611199999</v>
+        <v>734667.7286799999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>954556.9665399999</v>
+        <v>960556.4236100001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1262183.40004</v>
+        <v>1289809.59927</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1673262.07605</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1825151.94825</v>
+        <v>1851806.35978</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2854971.5838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3047059.83608</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3542141.86</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2683329.7822</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3133866.07813</v>
+        <v>3394836.79371</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4313865.06247</v>
+        <v>4313865.062469999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4953310.54351</v>
+        <v>4954122.76001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6081838.80934</v>
+        <v>6082346.33547</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6982553.046639999</v>
+        <v>7068451.54133</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8070523.8715</v>
+        <v>8926428.20401</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10521794.40552</v>
+        <v>10544493.06972</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>12821997.76797</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15256557.51551</v>
+        <v>15349130.56657</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18053434.47201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18297611.45448</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>16770812.462</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>3692.55764</v>
@@ -1475,106 +1446,121 @@
         <v>8739.75734</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>9935.511630000001</v>
+        <v>10296.12291</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20565.92645</v>
+        <v>20593.16752</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>29251.62888</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>62785.76324</v>
+        <v>64236.72121</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>41614.45448000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>43509.09025</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>182762.701</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>820451.64095</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>965166.5380300001</v>
+        <v>1006321.91517</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1334651.06011</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1463924.92057</v>
+        <v>1464098.88805</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1800290.94392</v>
+        <v>1800391.10079</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2158226.02075</v>
+        <v>2220595.82014</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2310010.7959</v>
+        <v>2535141.09798</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2904493.82609</v>
+        <v>3028046.31583</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3633796.3997</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4698287.256229999</v>
+        <v>4726121.722730001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5491394.03656</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5634062.99794</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5889725.218</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>667153.1843199999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>759157.6799700001</v>
+        <v>790659.6706800001</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>1030315.8624</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1143166.13204</v>
+        <v>1143371.64059</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1314141.32216</v>
+        <v>1314240.52173</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1663532.46976</v>
+        <v>1681820.9139</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1819639.79974</v>
+        <v>1990506.07348</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2223864.4129</v>
+        <v>2326295.40638</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2842374.672939999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3301434.11958</v>
+        <v>3319556.22489</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3767074.00129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3840385.83971</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3734865.689</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6658.90037</v>
+        <v>6658.900370000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>7275.98432</v>
@@ -1589,10 +1575,10 @@
         <v>15065.83594</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>16023.35934</v>
+        <v>16040.92181</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>24317.71905</v>
+        <v>24382.10514</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>29861.21675</v>
@@ -1604,13 +1590,18 @@
         <v>135703.38768</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12337.55439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12355.69423</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>24733.335</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>108461.64581</v>
@@ -1625,154 +1616,174 @@
         <v>224779.80444</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>267056.67948</v>
+        <v>267108.53822</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>355211.0416</v>
+        <v>356059.29523</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>381385.6483999999</v>
+        <v>396997.3105499999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>396045.11032</v>
+        <v>465992.20593</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>553165.3601700001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>584544.3294399999</v>
+        <v>585985.5516400001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>714487.1298299999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>720096.80532</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>696147.7830000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>552032.6381399999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>616940.35615</v>
+        <v>648442.34686</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>813674.34182</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>905879.4174499999</v>
+        <v>906084.926</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1032018.80674</v>
+        <v>1032066.14757</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1292298.06882</v>
+        <v>1309720.69686</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1413936.43229</v>
+        <v>1569126.65779</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1797958.08583</v>
+        <v>1830441.9837</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2183131.19581</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2581186.40246</v>
+        <v>2597867.28557</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3040249.31707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3107933.34016</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3013984.571</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>153298.45663</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>206008.85806</v>
+        <v>215662.24449</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>304335.19771</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>320758.78853</v>
+        <v>320727.24746</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>486149.62176</v>
+        <v>486150.57906</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>494693.55099</v>
+        <v>538774.90624</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>490370.99616</v>
+        <v>544635.0245000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>680629.4131900001</v>
+        <v>701750.90945</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>791421.7267600001</v>
+        <v>791421.72676</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1396853.13665</v>
+        <v>1406565.49784</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1724320.03527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1793677.15823</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2154859.529</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>190681.54143</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>191224.9086</v>
+        <v>194430.1668</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>290702.75336</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>451209.5655600001</v>
+        <v>451211.50549</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>287927.2256</v>
+        <v>287927.2255999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>318414.6193</v>
+        <v>322834.74662</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>527202.9323</v>
+        <v>546537.32901</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>530063.92581</v>
+        <v>551210.0120799999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>724874.9608000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1916644.62982</v>
+        <v>1918608.3048</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2157873.65645</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2167100.447</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2232581.303</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>7621.02726</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2317.92521</v>
+        <v>2317.94498</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>5101.607500000001</v>
@@ -1781,16 +1792,16 @@
         <v>6923.06737</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7187.020630000001</v>
+        <v>7187.020629999999</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>1925.28286</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5078.883699999999</v>
+        <v>5136.4798</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>11256.55417</v>
+        <v>11735.12943</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>11843.23302</v>
@@ -1801,20 +1812,25 @@
       <c r="M26" s="48" t="n">
         <v>21031.16567</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>22275.985</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>17343.5973</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>59928.28833</v>
+        <v>60201.88833000001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>80087.57495999998</v>
+        <v>80087.57496</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>241707.69151</v>
@@ -1823,13 +1839,13 @@
         <v>28157.0945</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>49034.06166000001</v>
+        <v>49034.06166</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>43658.82401</v>
+        <v>44036.59239</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>49108.16341</v>
+        <v>49108.16340999999</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>66704.27691</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>691380.77408</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>360483.04</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>32457.28983</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>31242.08899</v>
+        <v>33631.61772</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>45067.97315999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>59597.22598000001</v>
+        <v>59599.16591</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>51781.36276</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>77677.71259000001</v>
+        <v>82037.53535999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>87507.52279999998</v>
+        <v>99863.16812</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>105759.90293</v>
+        <v>120610.79174</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>192004.86655</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>335867.89659</v>
+        <v>335936.81985</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>396445.6416</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>397057.3069100002</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>324161.396</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3163.01684</v>
@@ -1892,37 +1918,42 @@
         <v>2271.66605</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>4456.17476</v>
+        <v>4456.174760000001</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>4285.98355</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6007.624110000001</v>
+        <v>6007.62411</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6846.006490000002</v>
+        <v>6846.006490000001</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>4706.836200000002</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3810.067850000001</v>
+        <v>3810.06785</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6400.63985</v>
+        <v>6400.639849999999</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>9546.21594</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>12197.45288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>12203.71005</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5518.786</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5741.21665</v>
@@ -1934,19 +1965,19 @@
         <v>4009.6073</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6380.73944</v>
+        <v>6380.739439999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>6862.3051</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>7160.31533</v>
+        <v>7160.315329999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>10964.30881</v>
+        <v>11031.73013</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>19611.64805</v>
+        <v>22509.31858</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>64312.28949</v>
@@ -1955,16 +1986,21 @@
         <v>24198.41472</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>33805.49214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>34846.87319</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>26399.332</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9630.274229999999</v>
+        <v>9630.274230000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>877.2675800000001</v>
@@ -1982,10 +2018,10 @@
         <v>21093.50047</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>76613.36544999998</v>
+        <v>76636.87036</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>10122.98888</v>
+        <v>10151.09735</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>70229.80031999999</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>37704.40783</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>97929.461</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>91129.97591999998</v>
+        <v>91129.97592000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>60601.23605</v>
+        <v>60698.53094999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>123786.48686</v>
@@ -2018,28 +2059,33 @@
         <v>142579.21257</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>118479.42807</v>
+        <v>118532.30178</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>231728.23593</v>
+        <v>235818.78275</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>246043.40907</v>
+        <v>248398.39578</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>207448.56911</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1163214.53584</v>
+        <v>1165314.4207</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>684163.98759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>686712.7833</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1108713.805</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>314.07039</v>
@@ -2060,10 +2106,10 @@
         <v>352.71554</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>407.38197</v>
+        <v>492.69034</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>895.68938</v>
+        <v>895.7843800000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2577.10138</v>
@@ -2072,16 +2118,21 @@
         <v>2450.32683</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2812.85252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2812.852519999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>958.92</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>5.05439</v>
+        <v>5.054390000000001</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>5.26284</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>8.8043</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>67.045</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>23276.01862</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>24020.841</v>
+        <v>24465.6558</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>25607.04804</v>
@@ -2135,67 +2191,77 @@
         <v>28888.64127</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35645.54471</v>
+        <v>35652.97555</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>66537.57343</v>
+        <v>68814.17892000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>83196.87071999999</v>
+        <v>83732.63221000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>103297.65318</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>234484.71412</v>
+        <v>234279.58098</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>278323.07784</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>283341.7691499999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>286073.533</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>120523.9997</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>85595.18858</v>
+        <v>85702.66524000002</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>137349.51975</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>124355.1244</v>
+        <v>124356.46025</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>168953.19423</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>148900.10882</v>
+        <v>149525.89223</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>289834.64618</v>
+        <v>295644.48655</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>304220.64294</v>
+        <v>309454.3811</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>376616.99951</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1584651.37138</v>
+        <v>1586162.69944</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>962725.9661800001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>967354.43732</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1314578.277</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2317.20281</v>
@@ -2204,19 +2270,19 @@
         <v>4391.22637</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5759.38246</v>
+        <v>5759.382459999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9611.22769</v>
+        <v>9611.227690000002</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>13515.78538</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8535.340340000002</v>
+        <v>8535.340339999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6927.851900000001</v>
+        <v>6927.8739</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>8511.07596</v>
@@ -2225,22 +2291,27 @@
         <v>11475.89874</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>13046.10172</v>
+        <v>13059.33383</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>17087.39836</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>17105.08725</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>7132.378</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>24816.89528</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15656.76774</v>
+        <v>15678.84305</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>15673.39225</v>
@@ -2255,28 +2326,33 @@
         <v>19614.53991</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>71574.16264</v>
+        <v>72601.56469</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36444.67651</v>
+        <v>39916.65647</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>36997.63028999999</v>
+        <v>36997.63029000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>73796.15977000003</v>
+        <v>73838.5944</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>75005.85605</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>75878.85041000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>58031.841</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>45.30919</v>
+        <v>45.30919000000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>545.2274699999999</v>
@@ -2297,7 +2373,7 @@
         <v>138.41971</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>490.76081</v>
+        <v>490.7608099999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>620.46299</v>
@@ -2306,52 +2382,62 @@
         <v>2568.0275</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4638.75634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4367.36497</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7843.735</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>87861.95715999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>58684.81376</v>
+        <v>58770.21511</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>109476.97589</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>81849.8085</v>
+        <v>81851.14434999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>112521.7469</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>112751.06857</v>
+        <v>113376.85154</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>205002.90364</v>
+        <v>209782.23655</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>240303.38125</v>
+        <v>242044.69006</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>305329.84917</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1347605.91186</v>
+        <v>1348968.10223</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>668748.98219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>671311.8137899999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1076163.984</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>411.16416</v>
@@ -2384,13 +2470,18 @@
         <v>2012.37091</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3729.85468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2844.60156</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>217.515</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>4e-05</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>62.79469</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>98.872</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5071.47106</v>
+        <v>5071.471060000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>6275.123</v>
@@ -2447,34 +2543,39 @@
         <v>21695.89386</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7733.4855</v>
+        <v>7733.48594</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5659.79005</v>
+        <v>5662.87346</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>16828.3641</v>
+        <v>16848.81349</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>20050.79242</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>145494.63389</v>
+        <v>145588.10484</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>193452.32387</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>195783.92465</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>165089.952</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>40917.01510000001</v>
+        <v>40917.0151</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>39220.27490999999</v>
+        <v>39285.12713</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>62886.34738</v>
@@ -2486,79 +2587,89 @@
         <v>89842.24072</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>107297.55874</v>
+        <v>111736.2715</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>158126.8652</v>
+        <v>164862.03532</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>225929.18216</v>
+        <v>227724.19677</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>298359.70114</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>468445.80751</v>
+        <v>468565.14655</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>532909.71932</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>534600.50948</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>410296.324</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>32285.00168</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>33724.52065999999</v>
+        <v>33789.37288</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>57233.25525</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>69625.46175999999</v>
+        <v>69625.46176000001</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>70750.03575</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>101989.12969</v>
+        <v>106427.84245</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>150975.03433</v>
+        <v>157583.58332</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>217891.48033</v>
+        <v>219686.49494</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>289476.3699399999</v>
+        <v>289476.36994</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>449009.28599</v>
+        <v>449088.45633</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>517097.0717099999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>518787.86187</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>396839.201</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>8632.013419999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5495.754250000001</v>
+        <v>5495.75425</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>5653.092130000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6983.547509999998</v>
+        <v>6983.54751</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>19092.20497</v>
@@ -2567,109 +2678,124 @@
         <v>5308.429050000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7151.830869999998</v>
+        <v>7278.452</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>8037.701830000001</v>
+        <v>8037.70183</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>8883.331199999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>19436.52152</v>
+        <v>19476.69022</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>15812.64761</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>13457.123</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>182538.98326</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>272418.30317</v>
+        <v>285104.61892</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>394802.08394</v>
+        <v>394802.0839399999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>571004.2204199999</v>
+        <v>570973.2834300001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>515281.41241</v>
+        <v>515282.3697099999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>556910.5027300001</v>
+        <v>600347.4891300001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>569612.41708</v>
+        <v>630665.8316400001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>680543.5138999999</v>
+        <v>715782.3436600001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>841319.9869100001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1260400.58758</v>
+        <v>1270445.95665</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2386558.00622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2458822.65843</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2662566.231</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>38646.63336</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>36108.92579</v>
+        <v>36376.08525</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>72064.08981</v>
+        <v>72064.08980999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>64368.74415999999</v>
+        <v>64435.33551</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>82466.98118999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>96213.34459000001</v>
+        <v>96462.58814000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>117223.40701</v>
+        <v>124613.57211</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>187422.45813</v>
+        <v>188055.72693</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>161098.00751</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>233347.69164</v>
+        <v>234935.25852</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>348093.66873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>349632.34122</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>377779.426</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>984.4225400000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>333.6032300000001</v>
+        <v>334.26961</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1188.19101</v>
@@ -2681,10 +2807,10 @@
         <v>2309.85107</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2148.946809999999</v>
+        <v>2156.05323</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>853.0135</v>
+        <v>1715.68034</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>8626.654849999999</v>
@@ -2693,94 +2819,109 @@
         <v>10925.14853</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>15868.85746</v>
+        <v>15873.85746</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9406.9977</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9429.14752</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6906.191</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>37662.21082</v>
+        <v>37662.21081999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>35775.32256</v>
+        <v>36041.81564</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>70875.89879999998</v>
+        <v>70875.8988</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>63177.38658999999</v>
+        <v>63243.97794</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>80157.13012</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>94064.39777999998</v>
+        <v>94306.53491</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>116370.39351</v>
+        <v>122897.89177</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>178795.80328</v>
+        <v>179429.07208</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>150172.85898</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>217478.83418</v>
+        <v>219061.40106</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>338686.67103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>340203.1937</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>370873.235</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>38267.27608</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>35075.39197</v>
+        <v>35132.47086</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>233498.05093</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>58854.34319</v>
+        <v>58854.82874</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>82775.94132</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>179163.85506</v>
+        <v>179627.78741</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>115306.37305</v>
+        <v>117543.21182</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>249155.79537</v>
+        <v>249244.07051</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>236213.59789</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>266600.78198</v>
+        <v>267429.5534500001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>210709.22831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>215424.64256</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>213460.194</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>756.3335</v>
@@ -2801,7 +2942,7 @@
         <v>519.83122</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7881.5683</v>
+        <v>7883.84354</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1707.48934</v>
@@ -2813,205 +2954,233 @@
         <v>2559.30297</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3957.80634</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3960.45812</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3501.969</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5839.57459</v>
+        <v>5839.574590000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5457.92949</v>
+        <v>5488.01765</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>4222.82467</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4712.76769</v>
+        <v>4712.767690000001</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>8676.66159</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>23114.94103</v>
+        <v>23115.01867</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>18459.69369</v>
+        <v>19208.19301</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>9724.01014</v>
+        <v>9724.349340000002</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>10048.95217</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>25491.35733</v>
+        <v>25541.69162</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>21113.71502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>21175.81786</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13278.169</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>31671.36799</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>29517.38243</v>
+        <v>29544.37316</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>228805.25214</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>52837.53126</v>
+        <v>52838.01680999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>73779.24761000002</v>
+        <v>73779.24761000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>155529.08281</v>
+        <v>155992.93752</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>88965.11106</v>
+        <v>90451.17527000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>237724.29589</v>
+        <v>237812.23183</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>223462.75886</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>238550.12168</v>
+        <v>239328.55886</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>185637.70695</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>190288.36658</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>196680.056</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>182918.34054</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>273451.83699</v>
+        <v>286348.23331</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>233368.12282</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>576518.62139</v>
+        <v>576553.7902</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>514972.45228</v>
+        <v>514973.40958</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>473959.99226</v>
+        <v>517182.28986</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>571529.4510400001</v>
+        <v>637736.19193</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>618810.1766600001</v>
+        <v>654594.0000799999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>766204.39653</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1227147.49724</v>
+        <v>1237951.66172</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2523942.44664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2593030.35709</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2826885.463</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>50609.03859</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>58373.16547</v>
+        <v>61755.51684</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>79724.21759</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>79643.13069999999</v>
+        <v>79649.265</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>112220.5653</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>130075.01001</v>
+        <v>137937.63336</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>147340.62269</v>
+        <v>165177.0749</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>193436.07888</v>
+        <v>199553.79971</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>208421.33504</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>266372.85598</v>
+        <v>268908.64047</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>421702.46379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>427996.23173</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>529494.801</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>132309.30195</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>215078.67152</v>
+        <v>224592.71647</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>153643.90523</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>496875.4906899999</v>
+        <v>496904.5252</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>402751.88698</v>
+        <v>402752.84428</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>343884.98225</v>
+        <v>379244.6565</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>424188.82835</v>
+        <v>472559.11703</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>425374.09778</v>
+        <v>455040.20037</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>557783.06149</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>960774.6412599999</v>
+        <v>969043.02125</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2102239.98285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2165034.12536</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2297390.662</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3192</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>3659</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3756</v>
+        <v>3758</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3796</v>
+        <v>3798</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4089</v>
+        <v>4105</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>4322</v>
+        <v>4368</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4655</v>
+        <v>4689</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>5146</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5664</v>
+        <v>6043</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6524</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6822</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>